--- a/Data/EC/NIT-9009200263.xlsx
+++ b/Data/EC/NIT-9009200263.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F7EED28-D1F4-4929-88BD-15924399CC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50041967-29B3-41C3-B72D-F0A1D9A26B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{144E4FA2-10B5-4606-873C-62156E04B29C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8896DD0-135D-46A1-838E-CB0F9A7F42EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,28 +80,55 @@
     <t>LUIS ENRIQUE VARGAS PEREZ</t>
   </si>
   <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
+    <t>91537553</t>
+  </si>
+  <si>
+    <t>FELIX RICARDO MOLANO SOLEADO</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1082905847</t>
+  </si>
+  <si>
+    <t>GEINER ENRIQUE GARCIA TAVORDA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2502</t>
   </si>
   <si>
     <t>1002307667</t>
@@ -113,112 +140,94 @@
     <t>2301</t>
   </si>
   <si>
+    <t>1002306466</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO HERRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>7958857</t>
   </si>
   <si>
     <t>LUIS ALBERTO CUETO RTIZ</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1002306466</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO HERRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>91537553</t>
-  </si>
-  <si>
-    <t>FELIX RICARDO MOLANO SOLEADO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
     <t>1124065784</t>
   </si>
   <si>
     <t>ERICK DE JESUS MIRANDA MURILLO</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -262,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9B933F-4A50-9591-65DB-376587C9B6A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7A7502-0E83-F652-899B-69BDB267F00B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,32 +992,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E576EAC-F47E-41FF-BA4B-E0A53E6C752E}">
-  <dimension ref="B2:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C1DA01-69BE-4907-BD39-D7E390B7F497}">
+  <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1026,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1028,7 +1037,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1039,7 +1048,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1050,10 +1059,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1066,8 +1075,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1082,15 +1091,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>15693200</v>
+        <v>16478420</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,27 +1107,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1138,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1164,13 +1173,13 @@
         <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1225,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1248,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1271,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1294,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1317,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1340,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1363,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1368,16 +1377,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1391,39 +1400,39 @@
         <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>464000</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>11600000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,76 +1443,76 @@
         <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>464000</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>11600000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>464000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1515,41 +1524,41 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1561,41 +1570,41 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1607,7 +1616,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1630,18 +1639,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1653,64 +1662,64 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1722,41 +1731,41 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1768,18 +1777,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1791,41 +1800,41 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1837,41 +1846,41 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1883,64 +1892,64 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1952,18 +1961,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1975,41 +1984,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2021,87 +2030,87 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F54" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F56" s="18">
-        <v>15600</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2113,87 +2122,87 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
         <v>464000</v>
@@ -2205,64 +2214,64 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>464000</v>
@@ -2274,87 +2283,87 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G67" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>464000</v>
@@ -2366,87 +2375,87 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G69" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F72" s="18">
         <v>464000</v>
@@ -2458,18 +2467,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F73" s="18">
         <v>464000</v>
@@ -2481,87 +2490,87 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F74" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G74" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F75" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G75" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F76" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G76" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F77" s="18">
         <v>464000</v>
@@ -2573,64 +2582,64 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G78" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G79" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F80" s="18">
         <v>464000</v>
@@ -2642,41 +2651,41 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G81" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" s="18">
         <v>464000</v>
@@ -2688,84 +2697,84 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F83" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G83" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F84" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G85" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>57</v>
@@ -2780,156 +2789,156 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F87" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F88" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G88" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F89" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F90" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G90" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D91" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F91" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G92" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -2941,103 +2950,264 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F94" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G94" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F95" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G96" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G96" s="24">
+      <c r="F103" s="24">
+        <v>15600</v>
+      </c>
+      <c r="G103" s="24">
         <v>1300000</v>
       </c>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="H101" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="26"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="H108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="H109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H108:J108"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009200263.xlsx
+++ b/Data/EC/NIT-9009200263.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50041967-29B3-41C3-B72D-F0A1D9A26B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D69029-6731-42AA-B11B-3A3A2616A66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8896DD0-135D-46A1-838E-CB0F9A7F42EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{660ECE97-13C5-46BA-851E-2A45C5ED3822}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,28 +80,64 @@
     <t>LUIS ENRIQUE VARGAS PEREZ</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2204</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>1002307667</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL PERTUZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1002306466</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO HERRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>7958857</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO CUETO RTIZ</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
   </si>
   <si>
     <t>91537553</t>
@@ -113,121 +149,82 @@
     <t>2308</t>
   </si>
   <si>
-    <t>1082905847</t>
-  </si>
-  <si>
-    <t>GEINER ENRIQUE GARCIA TAVORDA</t>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1124065784</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS MIRANDA MURILLO</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1002307667</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL PERTUZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1002306466</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO HERRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>7958857</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO CUETO RTIZ</t>
-  </si>
-  <si>
-    <t>1124065784</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS MIRANDA MURILLO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -271,7 +268,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +323,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +338,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +538,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +582,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,13 +623,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -641,7 +638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7A7502-0E83-F652-899B-69BDB267F00B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EBB2C-B842-3413-0040-4E45185B2FE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,7 +660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -992,32 +989,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C1DA01-69BE-4907-BD39-D7E390B7F497}">
-  <dimension ref="B2:J109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D601C519-A28F-4317-ACEE-12E32F88655A}">
+  <dimension ref="B2:J108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1026,7 +1023,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1037,7 +1034,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1048,7 +1045,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1059,10 +1056,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1075,8 +1072,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1091,15 +1088,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>16478420</v>
+        <v>16818000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1107,27 +1104,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1147,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1173,13 +1170,13 @@
         <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1199,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1222,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1245,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1268,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1291,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1314,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1337,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1360,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1377,16 +1374,16 @@
         <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1400,39 +1397,39 @@
         <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>464000</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>11600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1443,99 +1440,99 @@
         <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>11600000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1547,41 +1544,41 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1593,30 +1590,30 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1627,30 +1624,30 @@
         <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1662,41 +1659,41 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1708,41 +1705,41 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1754,41 +1751,41 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1800,41 +1797,41 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1846,41 +1843,41 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1892,41 +1889,41 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1938,41 +1935,41 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1984,41 +1981,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2030,41 +2027,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2076,64 +2073,64 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
-        <v>46400</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2145,87 +2142,87 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>464000</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>11600000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F60" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F62" s="18">
         <v>464000</v>
@@ -2237,64 +2234,64 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F64" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F65" s="18">
         <v>464000</v>
@@ -2306,64 +2303,64 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F66" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F67" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
         <v>464000</v>
@@ -2375,64 +2372,64 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G70" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
         <v>464000</v>
@@ -2444,64 +2441,64 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F72" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F73" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
         <v>464000</v>
@@ -2513,64 +2510,64 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F75" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G75" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F76" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F77" s="18">
         <v>464000</v>
@@ -2582,64 +2579,64 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F78" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G78" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F79" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F80" s="18">
         <v>464000</v>
@@ -2651,64 +2648,64 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G81" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
         <v>464000</v>
@@ -2720,61 +2717,61 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>57</v>
@@ -2789,87 +2786,87 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F87" s="18">
-        <v>464000</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>11600000</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88" s="18">
-        <v>464000</v>
+        <v>46400</v>
       </c>
       <c r="G88" s="18">
-        <v>11600000</v>
+        <v>1160000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F89" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G89" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2881,64 +2878,64 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G92" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -2950,64 +2947,64 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F94" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F96" s="18">
         <v>52000</v>
@@ -3019,64 +3016,64 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F99" s="18">
         <v>52000</v>
@@ -3088,101 +3085,89 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F100" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G100" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F101" s="18">
-        <v>52000</v>
+        <v>464000</v>
       </c>
       <c r="G101" s="18">
-        <v>1300000</v>
+        <v>11600000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
+    <row r="102" spans="2:10">
+      <c r="B102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" s="18">
+      <c r="F102" s="24">
         <v>52000</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="24">
         <v>1300000</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" s="24">
-        <v>15600</v>
-      </c>
-      <c r="G103" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="26"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C108" s="32"/>
       <c r="H108" s="1" t="s">
@@ -3191,23 +3176,12 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="32"/>
-      <c r="H109" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B108:C108"/>
-    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009200263.xlsx
+++ b/Data/EC/NIT-9009200263.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D69029-6731-42AA-B11B-3A3A2616A66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F70E0E9-159F-4143-8D35-84A2E6BFAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{660ECE97-13C5-46BA-851E-2A45C5ED3822}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78B6757C-DC78-4095-B7D3-E0D5449E67AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -268,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,9 +326,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -338,7 +339,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,29 +535,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,19 +576,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,13 +632,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -638,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288EBB2C-B842-3413-0040-4E45185B2FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7665AAA-D1F3-31B5-F1C5-BD11A01EB564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -989,80 +998,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D601C519-A28F-4317-ACEE-12E32F88655A}">
-  <dimension ref="B2:J108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1B176-0F28-46A2-841C-FE28D7AE269F}">
+  <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1072,13 +1081,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009200263</v>
       </c>
@@ -1088,15 +1097,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>16818000</v>
+        <v>17380400</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1104,27 +1113,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1144,16 +1153,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,20 +1172,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>48000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1200000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1186,20 +1195,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>72000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1800000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,20 +1218,20 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>72000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1800000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1232,20 +1241,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>72000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1800000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1255,20 +1264,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>72000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1800000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1278,20 +1287,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>72000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1800000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1301,20 +1310,20 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>72000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1800000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1324,20 +1333,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>72000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1800000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1347,20 +1356,20 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>72000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1800000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1370,20 +1379,20 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1300000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1393,20 +1402,20 @@
       <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>46400</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1160000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1416,20 +1425,20 @@
       <c r="D27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>464000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>11600000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1439,20 +1448,20 @@
       <c r="D28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>46400</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1160000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1462,20 +1471,20 @@
       <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>464000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>11600000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1485,20 +1494,20 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>46400</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1160000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1508,20 +1517,20 @@
       <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>464000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>11600000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1531,20 +1540,20 @@
       <c r="D32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>46400</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1160000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1554,20 +1563,20 @@
       <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>464000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>11600000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1577,20 +1586,20 @@
       <c r="D34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>46400</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1160000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1600,20 +1609,20 @@
       <c r="D35" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>464000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>11600000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1623,20 +1632,20 @@
       <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>46400</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1423500</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1646,20 +1655,20 @@
       <c r="D37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>46400</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1160000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1669,20 +1678,20 @@
       <c r="D38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>464000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>11600000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1692,20 +1701,20 @@
       <c r="D39" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>46400</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1160000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1715,20 +1724,20 @@
       <c r="D40" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>464000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>11600000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1738,20 +1747,20 @@
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>46400</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1160000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1761,20 +1770,20 @@
       <c r="D42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>464000</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>11600000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1784,20 +1793,20 @@
       <c r="D43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>46400</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1160000</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1807,20 +1816,20 @@
       <c r="D44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>464000</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>11600000</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1830,20 +1839,20 @@
       <c r="D45" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>46400</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>1160000</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1853,20 +1862,20 @@
       <c r="D46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>464000</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>11600000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1876,20 +1885,20 @@
       <c r="D47" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>46400</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1160000</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1899,20 +1908,20 @@
       <c r="D48" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>464000</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>11600000</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1922,20 +1931,20 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>46400</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1160000</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1945,20 +1954,20 @@
       <c r="D50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>464000</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>11600000</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1968,20 +1977,20 @@
       <c r="D51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>46400</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>1160000</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1991,20 +2000,20 @@
       <c r="D52" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>464000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>11600000</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2014,20 +2023,20 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>46400</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1160000</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2037,20 +2046,20 @@
       <c r="D54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>464000</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>11600000</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2060,20 +2069,20 @@
       <c r="D55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>46400</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>1160000</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2083,20 +2092,20 @@
       <c r="D56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>464000</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>11600000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2106,20 +2115,20 @@
       <c r="D57" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>15600</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1300000</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2129,20 +2138,20 @@
       <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>46400</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1160000</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2152,20 +2161,20 @@
       <c r="D59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>464000</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>11600000</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2175,20 +2184,20 @@
       <c r="D60" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>52000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>1300000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2198,20 +2207,20 @@
       <c r="D61" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>46400</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>1160000</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2221,20 +2230,20 @@
       <c r="D62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>464000</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>11600000</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2244,20 +2253,20 @@
       <c r="D63" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>52000</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1300000</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2267,20 +2276,20 @@
       <c r="D64" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>46400</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>1160000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2290,20 +2299,20 @@
       <c r="D65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>464000</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>11600000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2313,20 +2322,20 @@
       <c r="D66" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>52000</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>1300000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2336,20 +2345,20 @@
       <c r="D67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>46400</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1160000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2359,20 +2368,20 @@
       <c r="D68" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>464000</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>11600000</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2382,20 +2391,20 @@
       <c r="D69" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>52000</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1300000</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2405,20 +2414,20 @@
       <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>46400</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="19">
         <v>1160000</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2428,20 +2437,20 @@
       <c r="D71" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="19">
         <v>464000</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="19">
         <v>11600000</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2451,20 +2460,20 @@
       <c r="D72" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>52000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>1300000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2474,20 +2483,20 @@
       <c r="D73" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>46400</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1160000</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2497,20 +2506,20 @@
       <c r="D74" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>464000</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>11600000</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2520,20 +2529,20 @@
       <c r="D75" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>52000</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>1300000</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2543,20 +2552,20 @@
       <c r="D76" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>46400</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>1160000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2566,20 +2575,20 @@
       <c r="D77" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>464000</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>11600000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2589,20 +2598,20 @@
       <c r="D78" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>52000</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>1300000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2612,20 +2621,20 @@
       <c r="D79" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>46400</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1160000</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2635,20 +2644,20 @@
       <c r="D80" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>464000</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>11600000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2658,20 +2667,20 @@
       <c r="D81" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>52000</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1300000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2681,20 +2690,20 @@
       <c r="D82" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>46400</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>1160000</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2704,20 +2713,20 @@
       <c r="D83" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>464000</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>11600000</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2727,20 +2736,20 @@
       <c r="D84" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>52000</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>1300000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2750,20 +2759,20 @@
       <c r="D85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>46400</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>1160000</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2773,20 +2782,20 @@
       <c r="D86" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>464000</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>11600000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2796,20 +2805,20 @@
       <c r="D87" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>52000</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1300000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2819,20 +2828,20 @@
       <c r="D88" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>46400</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>1160000</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2842,20 +2851,20 @@
       <c r="D89" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>464000</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>11600000</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2865,20 +2874,20 @@
       <c r="D90" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>52000</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>1300000</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2888,20 +2897,20 @@
       <c r="D91" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>46400</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1160000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -2911,20 +2920,20 @@
       <c r="D92" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>464000</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>11600000</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -2934,20 +2943,20 @@
       <c r="D93" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>52000</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>1300000</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -2957,20 +2966,20 @@
       <c r="D94" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>46400</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>1160000</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -2980,20 +2989,20 @@
       <c r="D95" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>464000</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>11600000</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3003,20 +3012,20 @@
       <c r="D96" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>52000</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="19">
         <v>1300000</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3026,20 +3035,20 @@
       <c r="D97" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>46400</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1160000</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3049,20 +3058,20 @@
       <c r="D98" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>464000</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>11600000</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3072,20 +3081,20 @@
       <c r="D99" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>52000</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>1300000</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3095,20 +3104,20 @@
       <c r="D100" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="19">
         <v>46400</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="19">
         <v>1160000</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3118,70 +3127,139 @@
       <c r="D101" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>464000</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>11600000</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="22" t="s">
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F102" s="24">
+      <c r="F102" s="19">
         <v>52000</v>
       </c>
-      <c r="G102" s="24">
+      <c r="G102" s="19">
         <v>1300000</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="26"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="32" t="s">
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="19">
+        <v>464000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>11600000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="28"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="H110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="32"/>
-      <c r="H108" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="C111" s="34"/>
+      <c r="H111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H110:J110"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
